--- a/test/dummy.xlsx
+++ b/test/dummy.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetOne" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
